--- a/Anexes_and_docs/TFM_docs/ANEXO III_Conjunto de pruebas Compass_KPI.xlsx
+++ b/Anexes_and_docs/TFM_docs/ANEXO III_Conjunto de pruebas Compass_KPI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D577CF61-F6BF-4728-9855-66C1F41E9EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADC985A-081E-44CE-8983-021CC8AEA68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SET" sheetId="1" r:id="rId1"/>
@@ -6531,25 +6531,27 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B195" sqref="B195"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15013,7 +15015,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L291" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
